--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 5 (37, 4, 45, 48, 20)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(37, 4, 45, 48, 20)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.419426124805231E-18</v>
+        <v>1.031401645158516E-17</v>
       </c>
       <c r="E2">
-        <v>3.419426124805231E-18</v>
+        <v>1.031401645158516E-17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.003119535895005E-09</v>
+        <v>3.10493676625513E-09</v>
       </c>
       <c r="E3">
-        <v>1.003119535895005E-09</v>
+        <v>3.10493676625513E-09</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1.692992675183349E-132</v>
+        <v>1.073771617599114E-156</v>
       </c>
       <c r="E4">
-        <v>1.692992675183349E-132</v>
+        <v>1.073771617599114E-156</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>7.659880289130605E-51</v>
+        <v>1.805185292894419E-71</v>
       </c>
       <c r="E5">
-        <v>7.659880289130605E-51</v>
+        <v>1.805185292894419E-71</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>7.716940342192558E-35</v>
+        <v>3.230884778053187E-21</v>
       </c>
       <c r="E6">
-        <v>7.716940342192558E-35</v>
+        <v>3.230884778053187E-21</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>9.502906727626381E-12</v>
+        <v>0.9999999918666663</v>
       </c>
       <c r="E7">
-        <v>0.999999999990497</v>
+        <v>8.133333673221443E-09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.941890659566445E-21</v>
+        <v>8.087045002740364E-13</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.9999999999991913</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.516717617885608E-30</v>
+        <v>5.924623545835132E-18</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9982559051527902</v>
+        <v>0.9999761750033686</v>
       </c>
       <c r="E11">
-        <v>0.001744094847209832</v>
+        <v>2.382499663144966E-05</v>
       </c>
       <c r="F11">
-        <v>230.73779296875</v>
+        <v>176.2105407714844</v>
       </c>
       <c r="G11">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
